--- a/database/Export/Tabelas Finais/POF 2007 TBL_7/Tabela7.xlsx
+++ b/database/Export/Tabelas Finais/POF 2007 TBL_7/Tabela7.xlsx
@@ -396,107 +396,107 @@
         </is>
       </c>
       <c r="B2">
-        <v>4631.01</v>
+        <v>1373.84</v>
       </c>
       <c r="C2">
-        <v>16937.91</v>
+        <v>3821.44</v>
       </c>
       <c r="D2">
-        <v>5721.94</v>
+        <v>2104.5</v>
       </c>
       <c r="E2">
-        <v>3494.2</v>
+        <v>1345.15</v>
       </c>
       <c r="F2">
-        <v>1846.36</v>
+        <v>907.11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Isotônico e Energético</t>
+          <t>Bebida Adoçada</t>
         </is>
       </c>
       <c r="B3">
-        <v>200.54</v>
+        <v>3839.85</v>
       </c>
       <c r="C3">
-        <v>226.74</v>
+        <v>5613.91</v>
       </c>
       <c r="D3">
-        <v>911.03</v>
+        <v>8143.1</v>
       </c>
       <c r="E3">
-        <v>740.62</v>
+        <v>5226.69</v>
       </c>
       <c r="F3">
-        <v>433.01</v>
+        <v>4424.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bebida Adoçada</t>
+          <t>Bebida Adoçada a Base de Leite</t>
         </is>
       </c>
       <c r="B4">
-        <v>4454.82</v>
+        <v>7414.78</v>
       </c>
       <c r="C4">
-        <v>9107.34</v>
+        <v>16693.07</v>
       </c>
       <c r="D4">
-        <v>18330.01</v>
+        <v>18543.9</v>
       </c>
       <c r="E4">
-        <v>11783.79</v>
+        <v>9684.790000000001</v>
       </c>
       <c r="F4">
-        <v>7869.51</v>
+        <v>8965.120000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bebida Adoçada a Base de Leite</t>
+          <t>Café e Chá</t>
         </is>
       </c>
       <c r="B5">
-        <v>8349.24</v>
+        <v>12434.91</v>
       </c>
       <c r="C5">
-        <v>21998.38</v>
+        <v>25030.43</v>
       </c>
       <c r="D5">
-        <v>27179.89</v>
+        <v>21570.2</v>
       </c>
       <c r="E5">
-        <v>17869.83</v>
+        <v>15405.8</v>
       </c>
       <c r="F5">
-        <v>10735.13</v>
+        <v>12767.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Café e Chá</t>
+          <t>Isotônico e Energético</t>
         </is>
       </c>
       <c r="B6">
-        <v>20784.47</v>
+        <v>62.73</v>
       </c>
       <c r="C6">
-        <v>48065.29</v>
+        <v>110.37</v>
       </c>
       <c r="D6">
-        <v>37928.13</v>
+        <v>346.15</v>
       </c>
       <c r="E6">
-        <v>33735.55</v>
+        <v>250.02</v>
       </c>
       <c r="F6">
-        <v>21677.72</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7">
@@ -506,19 +506,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>33465.92</v>
+        <v>29613.97</v>
       </c>
       <c r="C7">
-        <v>85544.84</v>
+        <v>62877.57</v>
       </c>
       <c r="D7">
-        <v>68913.02</v>
+        <v>54812.44</v>
       </c>
       <c r="E7">
-        <v>43895.59</v>
+        <v>31717.71</v>
       </c>
       <c r="F7">
-        <v>36571.09</v>
+        <v>27264.47</v>
       </c>
     </row>
     <row r="8">
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>12656.41</v>
+        <v>16246.44</v>
       </c>
       <c r="C8">
-        <v>25237.07</v>
+        <v>24118.65</v>
       </c>
       <c r="D8">
-        <v>30628.24</v>
+        <v>26967.87</v>
       </c>
       <c r="E8">
-        <v>25063.04</v>
+        <v>17313.19</v>
       </c>
       <c r="F8">
-        <v>16006.9</v>
+        <v>15440.89</v>
       </c>
     </row>
     <row r="9">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="B9">
-        <v>87.99</v>
+        <v>213.76</v>
       </c>
       <c r="C9">
-        <v>243.22</v>
+        <v>597.61</v>
       </c>
       <c r="D9">
-        <v>1210.75</v>
+        <v>1647.85</v>
       </c>
       <c r="E9">
-        <v>725.11</v>
+        <v>812.37</v>
       </c>
       <c r="F9">
-        <v>149.87</v>
+        <v>431.86</v>
       </c>
     </row>
     <row r="10">
@@ -572,19 +572,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>29354.12</v>
+        <v>12035.51</v>
       </c>
       <c r="C10">
-        <v>8150.8</v>
+        <v>2249.47</v>
       </c>
       <c r="D10">
-        <v>4875.75</v>
+        <v>1931.24</v>
       </c>
       <c r="E10">
-        <v>3095.81</v>
+        <v>1049.42</v>
       </c>
       <c r="F10">
-        <v>2456.54</v>
+        <v>1145.81</v>
       </c>
     </row>
   </sheetData>
